--- a/webapps/ROOT/image/CustomerExcel.xlsx
+++ b/webapps/ROOT/image/CustomerExcel.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weizhuang/chinaventure-security/src/main/webapp/image/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\chinaventure-security\src\main\webapp\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E956C520-D15F-475E-AAD2-F259D835316F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40880" yWindow="8260" windowWidth="25040" windowHeight="12820"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -78,14 +79,26 @@
     <rPh sb="0" eb="1">
       <t>gen'zong'zhuang'tai</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务接受</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +130,12 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -462,25 +481,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,6 +520,9 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
